--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Bürgertum</t>
   </si>
@@ -68,18 +60,12 @@
     <t>Zivilprozessordnung</t>
   </si>
   <si>
-    <t>Index Baernreither</t>
-  </si>
-  <si>
     <t>Arbeitstechniken</t>
   </si>
   <si>
     <t>Gymnasialzeit</t>
   </si>
   <si>
-    <t>Studien England 1883/84</t>
-  </si>
-  <si>
     <t>Zollbündnis mit Österreich-Ungarn</t>
   </si>
   <si>
@@ -194,9 +180,6 @@
     <t>Arbeiterkurie</t>
   </si>
   <si>
-    <t xml:space="preserve">Badeni'sche Wahlreform </t>
-  </si>
-  <si>
     <t>Kurie Allgemeine Wählerklasse</t>
   </si>
   <si>
@@ -212,9 +195,6 @@
     <t>Proportionalwahlrecht</t>
   </si>
   <si>
-    <t>Taaffe'sche Wahlreform</t>
-  </si>
-  <si>
     <t>Wahlkampf</t>
   </si>
   <si>
@@ -291,6 +271,15 @@
   </si>
   <si>
     <t>Paragraph 14 des Gesetzes vom 21. Dezember 1867</t>
+  </si>
+  <si>
+    <t>Taaffesche Wahlreform</t>
+  </si>
+  <si>
+    <t>Studien England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badenische Wahlreform </t>
   </si>
 </sst>
 </file>
@@ -342,11 +331,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -362,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -674,611 +660,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>63</v>
+      <c r="A78" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
+      <c r="A82" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>Bürgertum</t>
   </si>
@@ -60,6 +68,9 @@
     <t>Zivilprozessordnung</t>
   </si>
   <si>
+    <t>Index Baernreither</t>
+  </si>
+  <si>
     <t>Arbeitstechniken</t>
   </si>
   <si>
@@ -105,9 +116,6 @@
     <t>Verhältnis zueinander</t>
   </si>
   <si>
-    <t>wirtschaftliche Trennung</t>
-  </si>
-  <si>
     <t>Zoll- und Handelsbündnis</t>
   </si>
   <si>
@@ -280,6 +288,9 @@
   </si>
   <si>
     <t xml:space="preserve">Badenische Wahlreform </t>
+  </si>
+  <si>
+    <t>Wirtschaftliche Trennung</t>
   </si>
 </sst>
 </file>
@@ -331,8 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -348,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,603 +674,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="34.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-    </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="145621" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>Bürgertum</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Zivilprozessordnung</t>
   </si>
   <si>
-    <t>Index Baernreither</t>
-  </si>
-  <si>
     <t>Arbeitstechniken</t>
   </si>
   <si>
@@ -291,6 +288,24 @@
   </si>
   <si>
     <t>Wirtschaftliche Trennung</t>
+  </si>
+  <si>
+    <t>Versicherung</t>
+  </si>
+  <si>
+    <t>Pressebüro des Ministerratspräsidiums</t>
+  </si>
+  <si>
+    <t>Herrenhaus</t>
+  </si>
+  <si>
+    <t>Allgemeines Wahlrecht</t>
+  </si>
+  <si>
+    <t>Delegationen</t>
+  </si>
+  <si>
+    <t>Realunion</t>
   </si>
 </sst>
 </file>
@@ -342,11 +357,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -674,611 +686,661 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="34.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63D77C7-DC41-4E36-846A-C4299E31CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Bürgertum</t>
   </si>
@@ -306,12 +307,15 @@
   </si>
   <si>
     <t>Realunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,21 +689,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -707,12 +711,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -720,12 +724,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -733,7 +737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -741,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -749,7 +753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -757,7 +761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -765,7 +769,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -773,7 +777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -781,12 +785,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -794,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -802,12 +806,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -815,12 +819,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -828,12 +832,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -841,22 +845,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -864,12 +868,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -877,7 +881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -885,7 +889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -893,7 +897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -901,7 +905,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -909,7 +913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -917,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -925,7 +929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -933,7 +937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -941,7 +945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -949,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -957,7 +961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -965,7 +969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -973,7 +977,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -981,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -989,17 +993,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1023,12 +1027,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>71</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>71</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -1132,17 +1136,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>74</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -1190,12 +1194,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -1211,12 +1215,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
@@ -1240,7 +1244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
@@ -1320,26 +1324,28 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
     </row>
   </sheetData>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63D77C7-DC41-4E36-846A-C4299E31CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529CB9F-16EB-4074-8A11-22D7410F530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>Bürgertum</t>
   </si>
@@ -307,9 +307,6 @@
   </si>
   <si>
     <t>Realunion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1335,9 +1332,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529CB9F-16EB-4074-8A11-22D7410F530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -311,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,21 +686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -707,12 +708,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -720,12 +721,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -733,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -741,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -749,7 +750,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -757,7 +758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -765,7 +766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -773,7 +774,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -781,12 +782,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -794,7 +795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
@@ -802,12 +803,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -815,12 +816,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
@@ -828,12 +829,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -841,22 +842,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -864,12 +865,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -877,7 +878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
@@ -885,7 +886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -893,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
@@ -901,7 +902,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -909,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
@@ -917,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -925,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -933,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -941,7 +942,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -949,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -957,7 +958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -965,7 +966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -973,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
@@ -981,7 +982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -989,17 +990,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1023,12 +1024,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>71</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>71</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>71</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>71</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
@@ -1132,17 +1133,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -1150,7 +1151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>74</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
@@ -1190,12 +1191,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
@@ -1211,12 +1212,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>43</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>43</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>43</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
@@ -1320,26 +1321,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
     </row>
   </sheetData>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529CB9F-16EB-4074-8A11-22D7410F530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E466EEF5-4DA2-4137-A665-1FA3A168F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,11 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E466EEF5-4DA2-4137-A665-1FA3A168F342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D859D2D-8D47-4B54-921E-C08721A2AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>Großgrundbesitz (beide Parteien)</t>
   </si>
   <si>
-    <t>Hauptbegriff</t>
-  </si>
-  <si>
     <t>Unterbegriff</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>Realunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptbegriff </t>
   </si>
 </sst>
 </file>
@@ -700,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -816,15 +816,15 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
         <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>43</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D859D2D-8D47-4B54-921E-C08721A2AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97964FE-1764-4854-940C-43DFBEF85A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     <t>Realunion</t>
   </si>
   <si>
-    <t xml:space="preserve">Hauptbegriff </t>
+    <t>Hauptbegriff</t>
   </si>
 </sst>
 </file>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97964FE-1764-4854-940C-43DFBEF85A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DAD04-5592-46ED-8F1B-368A814DD391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2475" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,7 @@
     <t>Realunion</t>
   </si>
   <si>
-    <t>Hauptbegriff</t>
+    <t xml:space="preserve">Hauptbegriff </t>
   </si>
 </sst>
 </file>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529CB9F-16EB-4074-8A11-22D7410F530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636DAD04-5592-46ED-8F1B-368A814DD391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>Großgrundbesitz (beide Parteien)</t>
   </si>
   <si>
-    <t>Hauptbegriff</t>
-  </si>
-  <si>
     <t>Unterbegriff</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>Realunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptbegriff </t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,11 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
@@ -702,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -718,7 +716,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -747,7 +745,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -818,15 +816,15 @@
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -899,7 +897,7 @@
         <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -939,7 +937,7 @@
         <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -955,7 +953,7 @@
         <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1034,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1066,7 +1064,7 @@
         <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1230,7 +1228,7 @@
         <v>43</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1246,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1294,7 +1292,7 @@
         <v>43</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2715E89D-1A5C-6542-8D98-6DC7249098A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8942E3D-D22A-AC40-9C06-A95546E18D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="MIGAEtrWxjvykv7E4pmlZvogrId1c8BxcQ5Ejh8Kqvs="/>
     </ext>
@@ -1202,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8942E3D-D22A-AC40-9C06-A95546E18D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5940A44C-9B87-BA4A-BE71-F20BC0FBC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data/xlsx/Baernreither_Index_2023.xlsx
+++ b/data/xlsx/Baernreither_Index_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5940A44C-9B87-BA4A-BE71-F20BC0FBC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5838E-4075-9C4E-B7FF-516D945BF723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,9 +460,6 @@
     <t>&lt;index&gt;&lt;term key="Parteien"&gt;  &lt;/term&gt;&lt;index&gt;&lt;term key="Pfingstprogramm"/&gt;&lt;/index&gt;&lt;/index&gt;</t>
   </si>
   <si>
-    <t>Deutschen Parteien</t>
-  </si>
-  <si>
     <t>DeutschenParteien</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
   <si>
     <t>KaiserlichesNotverordnungsrecht</t>
   </si>
+  <si>
+    <t>Deutsche Parteien</t>
+  </si>
 </sst>
 </file>
 
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2235,7 +2235,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>65</v>
@@ -3524,16 +3524,16 @@
         <v>127</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3562,15 +3562,15 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3599,15 +3599,15 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3636,19 +3636,19 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3677,19 +3677,19 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3718,19 +3718,19 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3759,19 +3759,19 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3800,19 +3800,19 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3841,19 +3841,19 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="E67" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3882,19 +3882,19 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3923,19 +3923,19 @@
     </row>
     <row r="69" spans="1:29" ht="15.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3964,19 +3964,19 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -4005,19 +4005,19 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4046,19 +4046,19 @@
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4087,19 +4087,19 @@
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4128,19 +4128,19 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>175</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4169,19 +4169,19 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" s="18" t="s">
+      <c r="E75" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4210,19 +4210,19 @@
     </row>
     <row r="76" spans="1:29" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>180</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4292,19 +4292,19 @@
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1">
       <c r="A78" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" s="21" t="s">
+      <c r="E78" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4333,19 +4333,19 @@
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="E79" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4374,19 +4374,19 @@
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4415,19 +4415,19 @@
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4456,19 +4456,19 @@
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4497,15 +4497,15 @@
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4534,15 +4534,15 @@
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
       <c r="A84" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -4571,15 +4571,15 @@
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4608,15 +4608,15 @@
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4645,19 +4645,19 @@
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4686,19 +4686,19 @@
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4727,19 +4727,19 @@
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
       <c r="A89" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="D89" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4768,19 +4768,19 @@
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
       <c r="A90" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4809,19 +4809,19 @@
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -4850,19 +4850,19 @@
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -4891,19 +4891,19 @@
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -4932,15 +4932,15 @@
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4969,15 +4969,15 @@
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -5006,19 +5006,19 @@
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -5047,19 +5047,19 @@
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -5088,15 +5088,15 @@
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -5125,15 +5125,15 @@
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -5162,19 +5162,19 @@
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -5203,19 +5203,19 @@
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -5244,19 +5244,19 @@
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -5285,19 +5285,19 @@
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -5326,19 +5326,19 @@
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -5367,19 +5367,19 @@
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5408,19 +5408,19 @@
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -5449,19 +5449,19 @@
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -5490,19 +5490,19 @@
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -5531,19 +5531,19 @@
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -5572,19 +5572,19 @@
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -5613,19 +5613,19 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -5654,15 +5654,15 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -5691,15 +5691,15 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -5728,15 +5728,15 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
